--- a/DataTest/AddNewProductAka47.xlsx
+++ b/DataTest/AddNewProductAka47.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19190" windowHeight="8730"/>
+    <workbookView windowWidth="19200" windowHeight="8720"/>
   </bookViews>
   <sheets>
     <sheet name="ProductIn4" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
     <t>https://www.youtube.com/watch?v=_eQLFVpOYm4</t>
   </si>
   <si>
-    <t>25-05-2024 00:00:00 to 25-06-2024 23:59:00</t>
+    <t>31-05-2024 00:00:00 to 25-06-2024 23:59:00</t>
   </si>
   <si>
     <t>Percent</t>
@@ -1295,8 +1295,8 @@
   <sheetPr/>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
